--- a/Assets/Dialogos.xlsx
+++ b/Assets/Dialogos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bohan\github\Triple_Proyecto\FUH\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bohan\GitHub\FUH\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ED0A76B-0D68-4453-B971-B7BA4A097742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E015C8DE-BD76-4BF5-840B-2E6CA508EA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4788" yWindow="1032" windowWidth="17280" windowHeight="8880" xr2:uid="{2A325ECA-C1F4-496C-968C-777D88EAB238}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A325ECA-C1F4-496C-968C-777D88EAB238}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
   <si>
     <t>Role</t>
   </si>
@@ -87,13 +87,94 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>Chatarero</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>bbbbbbbbbbbbbbbbbbbbbbb</t>
+  </si>
+  <si>
+    <t>cccccccccccccccccccccccccccccccccc</t>
+  </si>
+  <si>
+    <t>ddddddddddddd</t>
+  </si>
+  <si>
+    <t>eeeeeeeeeeeeeeeeeeee</t>
+  </si>
+  <si>
+    <t>fffffffffffffffffff</t>
+  </si>
+  <si>
+    <t>ggggggggggg</t>
+  </si>
+  <si>
+    <t>hhhhhhhhhhhhhhhhh</t>
+  </si>
+  <si>
+    <t>iiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiii</t>
+  </si>
+  <si>
+    <t>Receptor</t>
+  </si>
+  <si>
+    <t>Ch2</t>
+  </si>
+  <si>
+    <t>Ch3</t>
+  </si>
+  <si>
+    <t>Ch4</t>
+  </si>
+  <si>
+    <t>Ch5</t>
+  </si>
+  <si>
+    <t>Ch6</t>
+  </si>
+  <si>
+    <t>Ch7</t>
+  </si>
+  <si>
+    <t>Ch8</t>
+  </si>
+  <si>
+    <t>Ch9</t>
+  </si>
+  <si>
+    <t>qqqqqqqqqqqqqqqqqqqqqq</t>
+  </si>
+  <si>
+    <t>wwwwwwwwwwwwww</t>
+  </si>
+  <si>
+    <t>rrrrrrrrrrrrr</t>
+  </si>
+  <si>
+    <t>ttttttttttttttttttttttttttttttt</t>
+  </si>
+  <si>
+    <t>yyyyyyyyyyyyyyyyyyyyyyyyyyyyyyyyyyy</t>
+  </si>
+  <si>
+    <t>uuuuu</t>
+  </si>
+  <si>
+    <t>Dialog Number</t>
+  </si>
+  <si>
+    <t>mmmmmmmmmmmmmmmm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +188,20 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,11 +224,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,160 +544,563 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B1FA77-DCFD-4BAE-89DA-3499BD80BE56}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="4" max="5" width="39.6640625" customWidth="1"/>
+    <col min="1" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="4" width="23.5546875" customWidth="1"/>
+    <col min="6" max="7" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
       <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
       <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
       <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
       <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Dialogos.xlsx
+++ b/Assets/Dialogos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bohan\GitHub\FUH\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RadiiTheBoss\Documents\GitHub\PEPER1\FUH\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E015C8DE-BD76-4BF5-840B-2E6CA508EA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086E4002-7E73-4ABF-AACD-B13B0FCFDE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A325ECA-C1F4-496C-968C-777D88EAB238}"/>
+    <workbookView xWindow="3315" yWindow="2340" windowWidth="19470" windowHeight="18045" xr2:uid="{2A325ECA-C1F4-496C-968C-777D88EAB238}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogos" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="59">
   <si>
     <t>Role</t>
   </si>
@@ -62,9 +60,6 @@
     <t>Sistema</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
@@ -168,6 +163,54 @@
   </si>
   <si>
     <t>mmmmmmmmmmmmmmmm</t>
+  </si>
+  <si>
+    <t>Tutorial_1</t>
+  </si>
+  <si>
+    <t>Tutorial_2</t>
+  </si>
+  <si>
+    <t>Tutorial_3</t>
+  </si>
+  <si>
+    <t>Tutorial_4</t>
+  </si>
+  <si>
+    <t>Tutorial_5</t>
+  </si>
+  <si>
+    <t>Tutorial_6</t>
+  </si>
+  <si>
+    <t>Tutorial_7</t>
+  </si>
+  <si>
+    <t>InfoBot</t>
+  </si>
+  <si>
+    <t>¡Hola! Bienvenidx al tutorial rápido!</t>
+  </si>
+  <si>
+    <t>¡Nos vemos al otro lado!</t>
+  </si>
+  <si>
+    <t>¡Empieza moviendote con WASD y cruza este camino esquivando las rocas!</t>
+  </si>
+  <si>
+    <t>InfoBot_2</t>
+  </si>
+  <si>
+    <t>¡Muy bien, veo que te sabes mover!</t>
+  </si>
+  <si>
+    <t>¡Te voy a dar una hoz para que puedas abrirte paso por el siguiente camino!</t>
+  </si>
+  <si>
+    <t>¡Recuerda pulsar la tecla "E" cuando estés cerca de un arbusto!</t>
+  </si>
+  <si>
+    <t>Si lo consigues, llegarás al poblado, ¡buena suerte!</t>
   </si>
 </sst>
 </file>
@@ -544,31 +587,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B1FA77-DCFD-4BAE-89DA-3499BD80BE56}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="4" width="23.5546875" customWidth="1"/>
-    <col min="6" max="7" width="39.6640625" customWidth="1"/>
+    <col min="1" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="4" width="23.5703125" customWidth="1"/>
+    <col min="6" max="7" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -577,229 +620,172 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
         <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>4</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -808,18 +794,18 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -828,18 +814,18 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -848,18 +834,18 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -868,19 +854,19 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -889,18 +875,18 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -909,18 +895,18 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -929,173 +915,353 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
         <v>17</v>
       </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Dialogos.xlsx
+++ b/Assets/Dialogos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RadiiTheBoss\Documents\GitHub\PEPER1\FUH\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bohan\GitHub\FUH\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086E4002-7E73-4ABF-AACD-B13B0FCFDE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8544BA1-0D43-43E4-92D7-54EFCCF3124F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="2340" windowWidth="19470" windowHeight="18045" xr2:uid="{2A325ECA-C1F4-496C-968C-777D88EAB238}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A325ECA-C1F4-496C-968C-777D88EAB238}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogos" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="59">
   <si>
     <t>Role</t>
   </si>
@@ -587,20 +587,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B1FA77-DCFD-4BAE-89DA-3499BD80BE56}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="4" width="23.5703125" customWidth="1"/>
-    <col min="6" max="7" width="39.7109375" customWidth="1"/>
+    <col min="1" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="4" width="23.5546875" customWidth="1"/>
+    <col min="6" max="7" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -620,12 +620,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -634,18 +634,18 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -654,18 +654,18 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -674,96 +674,153 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>46</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -771,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -791,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -811,19 +868,20 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -831,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -851,20 +909,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -872,348 +929,348 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
         <v>7</v>
       </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>4</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
       <c r="D34" t="s">
         <v>16</v>
       </c>
@@ -1221,46 +1278,6 @@
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/Dialogos.xlsx
+++ b/Assets/Dialogos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bohan\GitHub\FUH\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joelm\Desktop\FUH\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8544BA1-0D43-43E4-92D7-54EFCCF3124F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EFA4C5-88C4-432B-B99A-D9B711A92712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A325ECA-C1F4-496C-968C-777D88EAB238}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
   <si>
     <t>Role</t>
   </si>
@@ -48,72 +48,18 @@
     <t>Raw Spanish Text</t>
   </si>
   <si>
-    <t>Inicio</t>
-  </si>
-  <si>
     <t>Barry</t>
   </si>
   <si>
     <t>Miranda</t>
   </si>
   <si>
-    <t>Sistema</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
     <t>Chatarero</t>
   </si>
   <si>
-    <t>aaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>bbbbbbbbbbbbbbbbbbbbbbb</t>
-  </si>
-  <si>
-    <t>cccccccccccccccccccccccccccccccccc</t>
-  </si>
-  <si>
-    <t>ddddddddddddd</t>
-  </si>
-  <si>
     <t>eeeeeeeeeeeeeeeeeeee</t>
   </si>
   <si>
-    <t>fffffffffffffffffff</t>
-  </si>
-  <si>
-    <t>ggggggggggg</t>
-  </si>
-  <si>
-    <t>hhhhhhhhhhhhhhhhh</t>
-  </si>
-  <si>
-    <t>iiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiii</t>
-  </si>
-  <si>
     <t>Receptor</t>
   </si>
   <si>
@@ -211,6 +157,57 @@
   </si>
   <si>
     <t>Si lo consigues, llegarás al poblado, ¡buena suerte!</t>
+  </si>
+  <si>
+    <t>Hola hijo, buenos días ¿Dónde estabas?</t>
+  </si>
+  <si>
+    <t>Bueno es igual, necesito que me hagas un favor.</t>
+  </si>
+  <si>
+    <t>Esta nueva enfermedad me está afectando más de lo que esperaba.</t>
+  </si>
+  <si>
+    <t>Por favor, ve a la ferreteria del prueblo a por un poco de  aceite.</t>
+  </si>
+  <si>
+    <t>Muchas gracias hijo.</t>
+  </si>
+  <si>
+    <t>Barry, debes irte de Ferder, el lugar ya no es seguro.</t>
+  </si>
+  <si>
+    <t>Si te vas lejos puede que encuentres a alguien que sepa como ayudarnos.</t>
+  </si>
+  <si>
+    <t>Toma el camino del bosque, quizá el granjero Hamilton te pueda ayudar.</t>
+  </si>
+  <si>
+    <t>La enfermedad nos esta pasando factura a todos, y no hay nadie que nos pueda ayudar.</t>
+  </si>
+  <si>
+    <t>Bienvenido pequeño, ¿Qué necesitas?</t>
+  </si>
+  <si>
+    <t>O vaya, así que un poco de aceite para tu mamá.</t>
+  </si>
+  <si>
+    <t>Espera un segundo, enseguida te lo doy.</t>
+  </si>
+  <si>
+    <t>Espero que esta nueva enfermedad se acabe ya, o esto no afectará a todos.</t>
+  </si>
+  <si>
+    <t>Perfecto, aquí lo tienes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… </t>
+  </si>
+  <si>
+    <t>Miranda1</t>
+  </si>
+  <si>
+    <t>Miranda2</t>
   </si>
 </sst>
 </file>
@@ -590,7 +587,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -622,7 +619,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -631,18 +628,18 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -651,18 +648,18 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -671,18 +668,18 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -691,18 +688,18 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -711,18 +708,18 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -731,18 +728,18 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -751,18 +748,18 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -771,179 +768,179 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -952,18 +949,18 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -972,18 +969,18 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -992,18 +989,18 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1012,18 +1009,18 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1032,18 +1029,18 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1052,18 +1049,18 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1072,18 +1069,18 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1092,18 +1089,18 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1112,18 +1109,18 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1132,18 +1129,18 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1152,18 +1149,18 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1172,18 +1169,18 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1192,18 +1189,18 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1212,18 +1209,18 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1232,18 +1229,18 @@
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1252,18 +1249,18 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1272,13 +1269,13 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Dialogos.xlsx
+++ b/Assets/Dialogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joelm\Desktop\FUH\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EFA4C5-88C4-432B-B99A-D9B711A92712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C2C784-4291-4EFC-A1F5-CC86F09693C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A325ECA-C1F4-496C-968C-777D88EAB238}"/>
   </bookViews>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B1FA77-DCFD-4BAE-89DA-3499BD80BE56}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Assets/Dialogos.xlsx
+++ b/Assets/Dialogos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joelm\Desktop\FUH\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C2C784-4291-4EFC-A1F5-CC86F09693C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE26C9C9-CAD3-43C2-84B2-9D9B0B18BA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A325ECA-C1F4-496C-968C-777D88EAB238}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
   <si>
     <t>Role</t>
   </si>
@@ -48,67 +48,16 @@
     <t>Raw Spanish Text</t>
   </si>
   <si>
-    <t>Barry</t>
-  </si>
-  <si>
     <t>Miranda</t>
   </si>
   <si>
     <t>Chatarero</t>
   </si>
   <si>
-    <t>eeeeeeeeeeeeeeeeeeee</t>
-  </si>
-  <si>
     <t>Receptor</t>
   </si>
   <si>
-    <t>Ch2</t>
-  </si>
-  <si>
-    <t>Ch3</t>
-  </si>
-  <si>
-    <t>Ch4</t>
-  </si>
-  <si>
-    <t>Ch5</t>
-  </si>
-  <si>
-    <t>Ch6</t>
-  </si>
-  <si>
-    <t>Ch7</t>
-  </si>
-  <si>
-    <t>Ch8</t>
-  </si>
-  <si>
-    <t>Ch9</t>
-  </si>
-  <si>
-    <t>qqqqqqqqqqqqqqqqqqqqqq</t>
-  </si>
-  <si>
-    <t>wwwwwwwwwwwwww</t>
-  </si>
-  <si>
-    <t>rrrrrrrrrrrrr</t>
-  </si>
-  <si>
-    <t>ttttttttttttttttttttttttttttttt</t>
-  </si>
-  <si>
-    <t>yyyyyyyyyyyyyyyyyyyyyyyyyyyyyyyyyyy</t>
-  </si>
-  <si>
-    <t>uuuuu</t>
-  </si>
-  <si>
     <t>Dialog Number</t>
-  </si>
-  <si>
-    <t>mmmmmmmmmmmmmmmm</t>
   </si>
   <si>
     <t>Tutorial_1</t>
@@ -264,12 +213,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B1FA77-DCFD-4BAE-89DA-3499BD80BE56}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,13 +552,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -619,7 +569,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -628,18 +578,18 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -648,18 +598,18 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -668,18 +618,18 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -688,18 +638,18 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -708,18 +658,18 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -728,18 +678,18 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -748,199 +698,199 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -949,18 +899,18 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -969,18 +919,18 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -989,18 +939,18 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1009,18 +959,18 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1029,18 +979,18 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1049,18 +999,18 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1069,18 +1019,18 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1089,18 +1039,18 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1109,174 +1059,17 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" t="s">
-        <v>24</v>
-      </c>
+      <c r="D28" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Dialogos.xlsx
+++ b/Assets/Dialogos.xlsx
@@ -1,140 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joelm\Desktop\FUH\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\FUH\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE26C9C9-CAD3-43C2-84B2-9D9B0B18BA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422E58BB-C703-48C5-878D-A72B2C4EEEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A325ECA-C1F4-496C-968C-777D88EAB238}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="47">
+  <si>
+    <t>Dialog Title</t>
+  </si>
+  <si>
+    <t>Dialog Number</t>
+  </si>
+  <si>
+    <t>Dialog Line Number</t>
+  </si>
+  <si>
+    <t>Receptor</t>
+  </si>
   <si>
     <t>Role</t>
   </si>
   <si>
-    <t>Dialog Title</t>
-  </si>
-  <si>
-    <t>Dialog Line Number</t>
-  </si>
-  <si>
     <t>Raw Spanish Text</t>
   </si>
   <si>
+    <t>Tutorial_1</t>
+  </si>
+  <si>
+    <t>InfoBot</t>
+  </si>
+  <si>
+    <t>¡Hola! Bienvenidx al tutorial rápido!</t>
+  </si>
+  <si>
+    <t>Tutorial_2</t>
+  </si>
+  <si>
+    <t>¡Empieza moviendote con WASD y cruza este camino esquivando las rocas!</t>
+  </si>
+  <si>
+    <t>Tutorial_3</t>
+  </si>
+  <si>
+    <t>¡Nos vemos al otro lado!</t>
+  </si>
+  <si>
+    <t>Tutorial_4</t>
+  </si>
+  <si>
+    <t>InfoBot_2</t>
+  </si>
+  <si>
+    <t>¡Muy bien, veo que te sabes mover!</t>
+  </si>
+  <si>
+    <t>Tutorial_5</t>
+  </si>
+  <si>
+    <t>¡Te voy a dar una hoz para que puedas abrirte paso por el siguiente camino!</t>
+  </si>
+  <si>
+    <t>Tutorial_6</t>
+  </si>
+  <si>
+    <t>¡Recuerda pulsar la tecla "E" cuando estés cerca de un arbusto!</t>
+  </si>
+  <si>
+    <t>Tutorial_7</t>
+  </si>
+  <si>
+    <t>Si lo consigues, llegarás al poblado, ¡buena suerte!</t>
+  </si>
+  <si>
+    <t>Miranda1</t>
+  </si>
+  <si>
     <t>Miranda</t>
   </si>
   <si>
+    <t>Hola hijo, buenos días ¿Dónde estabas?</t>
+  </si>
+  <si>
+    <t>Bueno es igual, necesito que me hagas un favor.</t>
+  </si>
+  <si>
+    <t>Por favor, ve a la ferreteria del prueblo a por un poco de  aceite.</t>
+  </si>
+  <si>
+    <t>Esta nueva enfermedad me está afectando más de lo que esperaba.</t>
+  </si>
+  <si>
+    <t>Muchas gracias hijo.</t>
+  </si>
+  <si>
+    <t>Miranda2</t>
+  </si>
+  <si>
+    <t>Barry, debes irte de Ferder, el lugar ya no es seguro.</t>
+  </si>
+  <si>
+    <t>La enfermedad nos esta pasando factura a todos, y no hay nadie que nos pueda ayudar.</t>
+  </si>
+  <si>
+    <t>Si te vas lejos puede que encuentres a alguien que sepa como ayudarnos.</t>
+  </si>
+  <si>
+    <t>Toma el camino del bosque, quizá el granjero Hamilton te pueda ayudar.</t>
+  </si>
+  <si>
     <t>Chatarero</t>
   </si>
   <si>
-    <t>Receptor</t>
-  </si>
-  <si>
-    <t>Dialog Number</t>
-  </si>
-  <si>
-    <t>Tutorial_1</t>
-  </si>
-  <si>
-    <t>Tutorial_2</t>
-  </si>
-  <si>
-    <t>Tutorial_3</t>
-  </si>
-  <si>
-    <t>Tutorial_4</t>
-  </si>
-  <si>
-    <t>Tutorial_5</t>
-  </si>
-  <si>
-    <t>Tutorial_6</t>
-  </si>
-  <si>
-    <t>Tutorial_7</t>
-  </si>
-  <si>
-    <t>InfoBot</t>
-  </si>
-  <si>
-    <t>¡Hola! Bienvenidx al tutorial rápido!</t>
-  </si>
-  <si>
-    <t>¡Nos vemos al otro lado!</t>
-  </si>
-  <si>
-    <t>¡Empieza moviendote con WASD y cruza este camino esquivando las rocas!</t>
-  </si>
-  <si>
-    <t>InfoBot_2</t>
-  </si>
-  <si>
-    <t>¡Muy bien, veo que te sabes mover!</t>
-  </si>
-  <si>
-    <t>¡Te voy a dar una hoz para que puedas abrirte paso por el siguiente camino!</t>
-  </si>
-  <si>
-    <t>¡Recuerda pulsar la tecla "E" cuando estés cerca de un arbusto!</t>
-  </si>
-  <si>
-    <t>Si lo consigues, llegarás al poblado, ¡buena suerte!</t>
-  </si>
-  <si>
-    <t>Hola hijo, buenos días ¿Dónde estabas?</t>
-  </si>
-  <si>
-    <t>Bueno es igual, necesito que me hagas un favor.</t>
-  </si>
-  <si>
-    <t>Esta nueva enfermedad me está afectando más de lo que esperaba.</t>
-  </si>
-  <si>
-    <t>Por favor, ve a la ferreteria del prueblo a por un poco de  aceite.</t>
-  </si>
-  <si>
-    <t>Muchas gracias hijo.</t>
-  </si>
-  <si>
-    <t>Barry, debes irte de Ferder, el lugar ya no es seguro.</t>
-  </si>
-  <si>
-    <t>Si te vas lejos puede que encuentres a alguien que sepa como ayudarnos.</t>
-  </si>
-  <si>
-    <t>Toma el camino del bosque, quizá el granjero Hamilton te pueda ayudar.</t>
-  </si>
-  <si>
-    <t>La enfermedad nos esta pasando factura a todos, y no hay nadie que nos pueda ayudar.</t>
-  </si>
-  <si>
     <t>Bienvenido pequeño, ¿Qué necesitas?</t>
   </si>
   <si>
@@ -144,26 +136,38 @@
     <t>Espera un segundo, enseguida te lo doy.</t>
   </si>
   <si>
+    <t xml:space="preserve">… </t>
+  </si>
+  <si>
+    <t>Perfecto, aquí lo tienes.</t>
+  </si>
+  <si>
     <t>Espero que esta nueva enfermedad se acabe ya, o esto no afectará a todos.</t>
   </si>
   <si>
-    <t>Perfecto, aquí lo tienes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">… </t>
-  </si>
-  <si>
-    <t>Miranda1</t>
-  </si>
-  <si>
-    <t>Miranda2</t>
+    <t>Ermitaño</t>
+  </si>
+  <si>
+    <t>Si encuentras madera te diré como levantar el puente</t>
+  </si>
+  <si>
+    <t>Ten la llave para buscar la palanca</t>
+  </si>
+  <si>
+    <t>Yo escondí la palanca, porque tenia miedo de que la ingección se expandiese…</t>
+  </si>
+  <si>
+    <t>Palanca</t>
+  </si>
+  <si>
+    <t>Genial ya está arreglada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,14 +176,128 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,15 +311,188 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -209,20 +500,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -526,68 +1002,63 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B1FA77-DCFD-4BAE-89DA-3499BD80BE56}">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="4" width="23.5546875" customWidth="1"/>
-    <col min="6" max="7" width="39.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -598,18 +1069,18 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -618,38 +1089,38 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -658,18 +1129,18 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -678,18 +1149,18 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -698,18 +1169,18 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -718,18 +1189,18 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -738,18 +1209,18 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -758,18 +1229,18 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -778,18 +1249,18 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -798,18 +1269,18 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -818,19 +1289,18 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>29</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>40</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -839,18 +1309,18 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -859,18 +1329,18 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -879,18 +1349,18 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -899,18 +1369,18 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -919,18 +1389,18 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -939,18 +1409,18 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -959,18 +1429,18 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -979,18 +1449,18 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -999,18 +1469,18 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1019,18 +1489,18 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1039,18 +1509,18 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1059,20 +1529,99 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D28" s="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
